--- a/amk-main-public/public/ep4TKP.xlsx
+++ b/amk-main-public/public/ep4TKP.xlsx
@@ -409,12 +409,16 @@
   <si>
     <t>Для применения в установках с повышенным уровнем вибрации, в частности, в компрессорных установках Исполнение с тормозом обратного хода Исполнение для энергетики Антивандальная крышка Высоковольтное исполнение с электропитанием от трехфазной сети переменного тока с напряжением 660 В</t>
   </si>
+  <si>
+    <t>Температурное 
+исполнение</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +552,320 @@
       <color rgb="FF000000"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -607,7 +925,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -1287,6 +1605,1490 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1297,7 +3099,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="699">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1798,6 +3600,1632 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="0" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="0" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="0" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="32" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="29" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="30" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="33" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="34" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" applyFill="1" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="72" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="116" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="118" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="121" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="122" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="126" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="126" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="128" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="131" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="118" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="132" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="132" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1832,7 +5260,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1981200" cy="1285875"/>
+    <xdr:ext cx="2619375" cy="1704975"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -1850,7 +5278,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="38100"/>
-          <a:ext cx="1981200" cy="1285875"/>
+          <a:ext cx="2619375" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2154,1378 +5582,1185 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G42" sqref="G42:O42" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
+      <selection activeCell="V17" sqref="V17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="7" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="43.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="8" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="20" max="20" width="37.140625" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="33">
-      <c r="A1" s="166" t="s">
+    <row r="1" customHeight="1" ht="24">
+      <c r="A1" s="590" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
+      <c r="H1" s="591"/>
+      <c r="I1" s="591"/>
+      <c r="J1" s="591"/>
+      <c r="K1" s="591"/>
+      <c r="L1" s="591"/>
+      <c r="M1" s="591"/>
+      <c r="N1" s="591"/>
+      <c r="O1" s="591"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" customHeight="1" ht="18">
-      <c r="A2" s="168"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
+    <row r="2" customHeight="1" ht="24">
+      <c r="A2" s="592"/>
+      <c r="B2" s="591"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="591"/>
+      <c r="F2" s="591"/>
+      <c r="G2" s="591"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="591"/>
+      <c r="J2" s="591"/>
+      <c r="K2" s="591"/>
+      <c r="L2" s="591"/>
+      <c r="M2" s="591"/>
+      <c r="N2" s="591"/>
+      <c r="O2" s="591"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="168"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
+    <row r="3" customHeight="1" ht="24">
+      <c r="A3" s="592"/>
+      <c r="B3" s="591"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="591"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="591"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="591"/>
+      <c r="L3" s="591"/>
+      <c r="M3" s="591"/>
+      <c r="N3" s="591"/>
+      <c r="O3" s="591"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" customHeight="1" ht="18">
-      <c r="A4" s="168"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
+    <row r="4" customHeight="1" ht="24">
+      <c r="A4" s="592"/>
+      <c r="B4" s="591"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="591"/>
+      <c r="E4" s="591"/>
+      <c r="F4" s="591"/>
+      <c r="G4" s="591"/>
+      <c r="H4" s="591"/>
+      <c r="I4" s="591"/>
+      <c r="J4" s="591"/>
+      <c r="K4" s="591"/>
+      <c r="L4" s="591"/>
+      <c r="M4" s="591"/>
+      <c r="N4" s="591"/>
+      <c r="O4" s="591"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" customHeight="1" ht="18">
-      <c r="A5" s="168"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
+    <row r="5" customHeight="1" ht="24">
+      <c r="A5" s="592"/>
+      <c r="B5" s="591"/>
+      <c r="C5" s="591"/>
+      <c r="D5" s="591"/>
+      <c r="E5" s="591"/>
+      <c r="F5" s="591"/>
+      <c r="G5" s="591"/>
+      <c r="H5" s="591"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="591"/>
+      <c r="M5" s="591"/>
+      <c r="N5" s="591"/>
+      <c r="O5" s="591"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" customHeight="1" ht="0">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
+    <row r="6" customHeight="1" ht="24">
+      <c r="A6" s="593"/>
+      <c r="B6" s="594"/>
+      <c r="C6" s="594"/>
+      <c r="D6" s="594"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="594"/>
+      <c r="J6" s="594"/>
+      <c r="K6" s="594"/>
+      <c r="L6" s="594"/>
+      <c r="M6" s="594"/>
+      <c r="N6" s="594"/>
+      <c r="O6" s="594"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="T6" s="81"/>
     </row>
-    <row r="7" customHeight="1" ht="21">
-      <c r="A7" s="138" t="s">
+    <row r="7" customHeight="1" ht="27">
+      <c r="A7" s="362" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="T7" s="81"/>
+      <c r="B7" s="363"/>
+      <c r="C7" s="363"/>
+      <c r="D7" s="363"/>
+      <c r="E7" s="363"/>
+      <c r="F7" s="363"/>
+      <c r="G7" s="363"/>
+      <c r="H7" s="363"/>
+      <c r="I7" s="364"/>
+      <c r="J7" s="364"/>
+      <c r="K7" s="364"/>
+      <c r="L7" s="364"/>
+      <c r="M7" s="364"/>
+      <c r="N7" s="364"/>
+      <c r="O7" s="364"/>
+      <c r="P7" s="365"/>
+      <c r="Q7" s="365"/>
     </row>
-    <row r="8" customHeight="1" ht="21">
-      <c r="A8" s="138" t="s">
+    <row r="8" customHeight="1" ht="27">
+      <c r="A8" s="362" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="161" t="s">
+      <c r="B8" s="366"/>
+      <c r="C8" s="366"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="368" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="161" t="s">
+      <c r="F8" s="364"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="364"/>
+      <c r="I8" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="161" t="s">
+      <c r="J8" s="364"/>
+      <c r="K8" s="364"/>
+      <c r="L8" s="364"/>
+      <c r="M8" s="368" t="s">
         <v>125</v>
       </c>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="T8" s="81"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="364"/>
+      <c r="P8" s="365"/>
+      <c r="Q8" s="365"/>
     </row>
-    <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="138" t="s">
+    <row r="9" customHeight="1" ht="27">
+      <c r="A9" s="362" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="11"/>
-      <c r="T9" s="81"/>
+      <c r="B9" s="367"/>
+      <c r="C9" s="364"/>
+      <c r="D9" s="364"/>
+      <c r="E9" s="364"/>
+      <c r="F9" s="364"/>
+      <c r="G9" s="364"/>
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="364"/>
+      <c r="L9" s="364"/>
+      <c r="M9" s="364"/>
+      <c r="N9" s="364"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
     </row>
-    <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A10" s="142" t="s">
+    <row r="10" customHeight="1" ht="27" customFormat="1" s="3">
+      <c r="A10" s="369" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="12"/>
-      <c r="T10" s="82"/>
+      <c r="B10" s="370"/>
+      <c r="C10" s="364"/>
+      <c r="D10" s="364"/>
+      <c r="E10" s="364"/>
+      <c r="F10" s="364"/>
+      <c r="G10" s="364"/>
+      <c r="H10" s="364"/>
+      <c r="I10" s="364"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="364"/>
+      <c r="L10" s="364"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="364"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
     </row>
-    <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A11" s="62" t="s">
+    <row r="11" customHeight="1" ht="27" customFormat="1" s="3">
+      <c r="A11" s="371" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="372"/>
+      <c r="C11" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64" t="s">
+      <c r="D11" s="374"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="374"/>
+      <c r="G11" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65" t="s">
+      <c r="H11" s="375"/>
+      <c r="I11" s="374" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="64" t="s">
+      <c r="J11" s="375"/>
+      <c r="K11" s="373" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="65"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="64" t="s">
+      <c r="L11" s="374"/>
+      <c r="M11" s="376"/>
+      <c r="N11" s="373" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="66"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="T11" s="82"/>
+      <c r="O11" s="375"/>
+      <c r="P11" s="377"/>
+      <c r="Q11" s="377"/>
     </row>
-    <row r="12" customHeight="1" ht="21">
-      <c r="A12" s="18" t="s">
+    <row r="12" customHeight="1" ht="54">
+      <c r="A12" s="595" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="596" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="364"/>
+      <c r="G12" s="364"/>
+      <c r="H12" s="364"/>
+      <c r="I12" s="364"/>
+      <c r="J12" s="364"/>
+      <c r="K12" s="364"/>
+      <c r="L12" s="364"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="365"/>
     </row>
-    <row r="13" customHeight="1" ht="21">
-      <c r="A13" s="19" t="s">
+    <row r="13" customHeight="1" ht="27">
+      <c r="A13" s="598" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="599" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="145"/>
+      <c r="C13" s="600"/>
+      <c r="D13" s="601"/>
+      <c r="E13" s="601"/>
+      <c r="F13" s="601"/>
+      <c r="G13" s="601"/>
+      <c r="H13" s="601"/>
+      <c r="I13" s="601"/>
+      <c r="J13" s="601"/>
+      <c r="K13" s="601"/>
+      <c r="L13" s="601"/>
+      <c r="M13" s="601"/>
+      <c r="N13" s="601"/>
+      <c r="O13" s="602"/>
+      <c r="P13" s="365"/>
+      <c r="Q13" s="365"/>
     </row>
-    <row r="14" customHeight="1" ht="21">
-      <c r="A14" s="19" t="s">
+    <row r="14" customHeight="1" ht="27">
+      <c r="A14" s="598" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="599" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="148"/>
+      <c r="C14" s="603"/>
+      <c r="D14" s="604"/>
+      <c r="E14" s="604"/>
+      <c r="F14" s="604"/>
+      <c r="G14" s="604"/>
+      <c r="H14" s="604"/>
+      <c r="I14" s="604"/>
+      <c r="J14" s="604"/>
+      <c r="K14" s="604"/>
+      <c r="L14" s="604"/>
+      <c r="M14" s="604"/>
+      <c r="N14" s="604"/>
+      <c r="O14" s="605"/>
+      <c r="P14" s="365"/>
+      <c r="Q14" s="365"/>
     </row>
-    <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="163" t="s">
+    <row r="15" customHeight="1" ht="27">
+      <c r="A15" s="388" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="165"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="B15" s="389"/>
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="389"/>
+      <c r="I15" s="389"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="389"/>
+      <c r="N15" s="389"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="391"/>
+      <c r="Q15" s="391"/>
     </row>
-    <row r="16" customHeight="1" ht="21">
-      <c r="A16" s="156" t="s">
+    <row r="16" customHeight="1" ht="27">
+      <c r="A16" s="451" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="452" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="453" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="D16" s="454"/>
+      <c r="E16" s="454"/>
+      <c r="F16" s="455"/>
+      <c r="G16" s="397"/>
+      <c r="H16" s="364"/>
+      <c r="I16" s="364"/>
+      <c r="J16" s="364"/>
+      <c r="K16" s="364"/>
+      <c r="L16" s="364"/>
+      <c r="M16" s="364"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
     </row>
-    <row r="17" customHeight="1" ht="21">
-      <c r="A17" s="151" t="s">
+    <row r="17" customHeight="1" ht="54">
+      <c r="A17" s="457" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="458" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="459" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="D17" s="460"/>
+      <c r="E17" s="460"/>
+      <c r="F17" s="461"/>
+      <c r="G17" s="364"/>
+      <c r="H17" s="364"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="364"/>
+      <c r="L17" s="364"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="391"/>
+      <c r="Q17" s="391"/>
     </row>
-    <row r="18" customHeight="1" ht="21">
-      <c r="A18" s="19" t="s">
+    <row r="18" customHeight="1" ht="36">
+      <c r="A18" s="439" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="462" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="463" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="D18" s="464"/>
+      <c r="E18" s="464"/>
+      <c r="F18" s="465"/>
+      <c r="G18" s="364"/>
+      <c r="H18" s="364"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="364"/>
+      <c r="L18" s="364"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="364"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="391"/>
+      <c r="Q18" s="391"/>
     </row>
-    <row r="19" customHeight="1" ht="21">
-      <c r="A19" s="19" t="s">
+    <row r="19" customHeight="1" ht="84">
+      <c r="A19" s="439" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="462" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="463" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="D19" s="464"/>
+      <c r="E19" s="464"/>
+      <c r="F19" s="464"/>
+      <c r="G19" s="364"/>
+      <c r="H19" s="364"/>
+      <c r="I19" s="364"/>
+      <c r="J19" s="364"/>
+      <c r="K19" s="364"/>
+      <c r="L19" s="364"/>
+      <c r="M19" s="364"/>
+      <c r="N19" s="364"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="391"/>
+      <c r="Q19" s="391"/>
     </row>
-    <row r="20" customHeight="1" ht="33">
-      <c r="A20" s="19" t="s">
+    <row r="20" customHeight="1" ht="84">
+      <c r="A20" s="439" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="462" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="463" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="D20" s="464"/>
+      <c r="E20" s="464"/>
+      <c r="F20" s="465"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="364"/>
+      <c r="I20" s="364"/>
+      <c r="J20" s="364"/>
+      <c r="K20" s="364"/>
+      <c r="L20" s="364"/>
+      <c r="M20" s="364"/>
+      <c r="N20" s="364"/>
+      <c r="O20" s="364"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
     </row>
-    <row r="21" customHeight="1" ht="21">
-      <c r="A21" s="19" t="s">
+    <row r="21" customHeight="1" ht="54">
+      <c r="A21" s="439" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="462" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="464" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="D21" s="464"/>
+      <c r="E21" s="464"/>
+      <c r="F21" s="464"/>
+      <c r="G21" s="364"/>
+      <c r="H21" s="364"/>
+      <c r="I21" s="364"/>
+      <c r="J21" s="364"/>
+      <c r="K21" s="364"/>
+      <c r="L21" s="364"/>
+      <c r="M21" s="364"/>
+      <c r="N21" s="364"/>
+      <c r="O21" s="364"/>
+      <c r="P21" s="391"/>
+      <c r="Q21" s="391"/>
     </row>
-    <row r="22" customHeight="1" ht="21">
-      <c r="A22" s="19" t="s">
+    <row r="22" customHeight="1" ht="51">
+      <c r="A22" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="462" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="466" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="D22" s="467"/>
+      <c r="E22" s="467"/>
+      <c r="F22" s="468"/>
+      <c r="G22" s="364"/>
+      <c r="H22" s="364"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
+      <c r="K22" s="364"/>
+      <c r="L22" s="364"/>
+      <c r="M22" s="364"/>
+      <c r="N22" s="364"/>
+      <c r="O22" s="364"/>
+      <c r="P22" s="391"/>
+      <c r="Q22" s="391"/>
     </row>
-    <row r="23" customHeight="1" ht="141">
-      <c r="A23" s="19" t="s">
+    <row r="23" customHeight="1" ht="271">
+      <c r="A23" s="439" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="468" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="466" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="D23" s="467"/>
+      <c r="E23" s="467"/>
+      <c r="F23" s="468"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="179"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="179"/>
+      <c r="P23" s="391"/>
+      <c r="Q23" s="391"/>
     </row>
-    <row r="24" customHeight="1" ht="48">
-      <c r="A24" s="19" t="s">
+    <row r="24" customHeight="1" ht="54">
+      <c r="A24" s="439" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="468" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="466" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="D24" s="467"/>
+      <c r="E24" s="467"/>
+      <c r="F24" s="468"/>
+      <c r="G24" s="364"/>
+      <c r="H24" s="364"/>
+      <c r="I24" s="364"/>
+      <c r="J24" s="364"/>
+      <c r="K24" s="364"/>
+      <c r="L24" s="364"/>
+      <c r="M24" s="364"/>
+      <c r="N24" s="364"/>
+      <c r="O24" s="364"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
     </row>
-    <row r="25" customHeight="1" ht="45">
-      <c r="A25" s="19" t="s">
+    <row r="25" customHeight="1" ht="99">
+      <c r="A25" s="439" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="468" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="463" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="D25" s="464"/>
+      <c r="E25" s="464"/>
+      <c r="F25" s="465"/>
+      <c r="G25" s="364"/>
+      <c r="H25" s="364"/>
+      <c r="I25" s="364"/>
+      <c r="J25" s="364"/>
+      <c r="K25" s="364"/>
+      <c r="L25" s="364"/>
+      <c r="M25" s="364"/>
+      <c r="N25" s="364"/>
+      <c r="O25" s="364"/>
+      <c r="P25" s="391"/>
+      <c r="Q25" s="391"/>
     </row>
-    <row r="26" customHeight="1" ht="30">
-      <c r="A26" s="19" t="s">
+    <row r="26" customHeight="1" ht="57">
+      <c r="A26" s="439" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="468" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="463" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="D26" s="464"/>
+      <c r="E26" s="464"/>
+      <c r="F26" s="465"/>
+      <c r="G26" s="364"/>
+      <c r="H26" s="364"/>
+      <c r="I26" s="364"/>
+      <c r="J26" s="364"/>
+      <c r="K26" s="364"/>
+      <c r="L26" s="364"/>
+      <c r="M26" s="364"/>
+      <c r="N26" s="364"/>
+      <c r="O26" s="364"/>
+      <c r="P26" s="391"/>
+      <c r="Q26" s="391"/>
     </row>
-    <row r="27" customHeight="1" ht="18">
-      <c r="A27" s="19" t="s">
+    <row r="27" customHeight="1" ht="57">
+      <c r="A27" s="439" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="468" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="C27" s="463"/>
+      <c r="D27" s="464"/>
+      <c r="E27" s="464"/>
+      <c r="F27" s="465"/>
+      <c r="G27" s="364"/>
+      <c r="H27" s="364"/>
+      <c r="I27" s="364"/>
+      <c r="J27" s="364"/>
+      <c r="K27" s="364"/>
+      <c r="L27" s="364"/>
+      <c r="M27" s="364"/>
+      <c r="N27" s="364"/>
+      <c r="O27" s="364"/>
+      <c r="P27" s="391"/>
+      <c r="Q27" s="391"/>
     </row>
-    <row r="28" customHeight="1" ht="33">
-      <c r="A28" s="18" t="s">
+    <row r="28" customHeight="1" ht="27">
+      <c r="A28" s="437" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="468" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="C28" s="463"/>
+      <c r="D28" s="464"/>
+      <c r="E28" s="464"/>
+      <c r="F28" s="465"/>
+      <c r="G28" s="364"/>
+      <c r="H28" s="364"/>
+      <c r="I28" s="364"/>
+      <c r="J28" s="364"/>
+      <c r="K28" s="364"/>
+      <c r="L28" s="364"/>
+      <c r="M28" s="364"/>
+      <c r="N28" s="364"/>
+      <c r="O28" s="364"/>
+      <c r="P28" s="391"/>
+      <c r="Q28" s="391"/>
     </row>
     <row r="29" customHeight="1" ht="54">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="439" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="D29" s="467"/>
+      <c r="E29" s="467"/>
+      <c r="F29" s="468"/>
+      <c r="G29" s="364"/>
+      <c r="H29" s="364"/>
+      <c r="I29" s="364"/>
+      <c r="J29" s="364"/>
+      <c r="K29" s="364"/>
+      <c r="L29" s="364"/>
+      <c r="M29" s="364"/>
+      <c r="N29" s="364"/>
+      <c r="O29" s="364"/>
+      <c r="P29" s="391"/>
+      <c r="Q29" s="391"/>
     </row>
-    <row r="30" customHeight="1" ht="45">
-      <c r="A30" s="19" t="s">
+    <row r="30" customHeight="1" ht="54">
+      <c r="A30" s="439" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="468" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="D30" s="467"/>
+      <c r="E30" s="467"/>
+      <c r="F30" s="468"/>
+      <c r="G30" s="364"/>
+      <c r="H30" s="364"/>
+      <c r="I30" s="364"/>
+      <c r="J30" s="364"/>
+      <c r="K30" s="364"/>
+      <c r="L30" s="364"/>
+      <c r="M30" s="364"/>
+      <c r="N30" s="364"/>
+      <c r="O30" s="364"/>
+      <c r="P30" s="391"/>
+      <c r="Q30" s="391"/>
     </row>
-    <row r="31" customHeight="1" ht="30">
-      <c r="A31" s="19" t="s">
+    <row r="31" customHeight="1" ht="54">
+      <c r="A31" s="439" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="468" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="D31" s="467"/>
+      <c r="E31" s="467"/>
+      <c r="F31" s="468"/>
+      <c r="G31" s="364"/>
+      <c r="H31" s="364"/>
+      <c r="I31" s="364"/>
+      <c r="J31" s="364"/>
+      <c r="K31" s="364"/>
+      <c r="L31" s="364"/>
+      <c r="M31" s="364"/>
+      <c r="N31" s="364"/>
+      <c r="O31" s="364"/>
+      <c r="P31" s="391"/>
+      <c r="Q31" s="391"/>
     </row>
-    <row r="32" customHeight="1" ht="33">
-      <c r="A32" s="19" t="s">
+    <row r="32" customHeight="1" ht="54">
+      <c r="A32" s="439" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="468" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="D32" s="467"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="468"/>
+      <c r="G32" s="364"/>
+      <c r="H32" s="364"/>
+      <c r="I32" s="364"/>
+      <c r="J32" s="364"/>
+      <c r="K32" s="364"/>
+      <c r="L32" s="364"/>
+      <c r="M32" s="364"/>
+      <c r="N32" s="364"/>
+      <c r="O32" s="364"/>
+      <c r="P32" s="391"/>
+      <c r="Q32" s="391"/>
     </row>
-    <row r="33" customHeight="1" ht="33">
-      <c r="A33" s="19" t="s">
+    <row r="33" customHeight="1" ht="54">
+      <c r="A33" s="439" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="468" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="C33" s="463"/>
+      <c r="D33" s="464"/>
+      <c r="E33" s="464"/>
+      <c r="F33" s="465"/>
+      <c r="G33" s="364"/>
+      <c r="H33" s="364"/>
+      <c r="I33" s="364"/>
+      <c r="J33" s="364"/>
+      <c r="K33" s="364"/>
+      <c r="L33" s="364"/>
+      <c r="M33" s="364"/>
+      <c r="N33" s="364"/>
+      <c r="O33" s="364"/>
+      <c r="P33" s="391"/>
+      <c r="Q33" s="391"/>
     </row>
-    <row r="34" customHeight="1" ht="51">
-      <c r="A34" s="19" t="s">
+    <row r="34" customHeight="1" ht="134">
+      <c r="A34" s="439" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="468" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="D34" s="467"/>
+      <c r="E34" s="467"/>
+      <c r="F34" s="468"/>
+      <c r="G34" s="364"/>
+      <c r="H34" s="364"/>
+      <c r="I34" s="364"/>
+      <c r="J34" s="364"/>
+      <c r="K34" s="364"/>
+      <c r="L34" s="364"/>
+      <c r="M34" s="364"/>
+      <c r="N34" s="364"/>
+      <c r="O34" s="364"/>
+      <c r="P34" s="391"/>
+      <c r="Q34" s="391"/>
     </row>
-    <row r="35" customHeight="1" ht="48">
-      <c r="A35" s="19" t="s">
+    <row r="35" customHeight="1" ht="138">
+      <c r="A35" s="439" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="468" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="466" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="139"/>
-      <c r="M35" s="139"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="139"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="D35" s="467"/>
+      <c r="E35" s="467"/>
+      <c r="F35" s="468"/>
+      <c r="G35" s="364"/>
+      <c r="H35" s="364"/>
+      <c r="I35" s="364"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="364"/>
+      <c r="L35" s="364"/>
+      <c r="M35" s="364"/>
+      <c r="N35" s="364"/>
+      <c r="O35" s="364"/>
+      <c r="P35" s="391"/>
+      <c r="Q35" s="391"/>
     </row>
-    <row r="36" customHeight="1" ht="48">
-      <c r="A36" s="19" t="s">
+    <row r="36" customHeight="1" ht="55">
+      <c r="A36" s="439" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="468" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="466" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="D36" s="467"/>
+      <c r="E36" s="467"/>
+      <c r="F36" s="468"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="364"/>
+      <c r="I36" s="364"/>
+      <c r="J36" s="364"/>
+      <c r="K36" s="364"/>
+      <c r="L36" s="364"/>
+      <c r="M36" s="364"/>
+      <c r="N36" s="364"/>
+      <c r="O36" s="364"/>
+      <c r="P36" s="391"/>
+      <c r="Q36" s="391"/>
     </row>
-    <row r="37" customHeight="1" ht="36">
-      <c r="A37" s="19" t="s">
+    <row r="37" customHeight="1" ht="84">
+      <c r="A37" s="625" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="626" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="139"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="C37" s="627"/>
+      <c r="D37" s="628"/>
+      <c r="E37" s="628"/>
+      <c r="F37" s="626"/>
+      <c r="G37" s="629"/>
+      <c r="H37" s="629"/>
+      <c r="I37" s="629"/>
+      <c r="J37" s="629"/>
+      <c r="K37" s="629"/>
+      <c r="L37" s="629"/>
+      <c r="M37" s="629"/>
+      <c r="N37" s="629"/>
+      <c r="O37" s="629"/>
+      <c r="P37" s="391"/>
+      <c r="Q37" s="391"/>
     </row>
-    <row r="38" customHeight="1" ht="63">
-      <c r="A38" s="19" t="s">
+    <row r="38" customHeight="1" ht="147">
+      <c r="A38" s="696" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="697" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="C38" s="697"/>
+      <c r="D38" s="697"/>
+      <c r="E38" s="697"/>
+      <c r="F38" s="697"/>
+      <c r="G38" s="698"/>
+      <c r="H38" s="698"/>
+      <c r="I38" s="698"/>
+      <c r="J38" s="698"/>
+      <c r="K38" s="698"/>
+      <c r="L38" s="698"/>
+      <c r="M38" s="698"/>
+      <c r="N38" s="698"/>
+      <c r="O38" s="698"/>
+      <c r="P38" s="391"/>
+      <c r="Q38" s="391"/>
     </row>
-    <row r="39" customHeight="1" ht="57">
-      <c r="A39" s="19" t="s">
+    <row r="39" customHeight="1" ht="222">
+      <c r="A39" s="696" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="697" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="140"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="C39" s="697"/>
+      <c r="D39" s="697"/>
+      <c r="E39" s="697"/>
+      <c r="F39" s="697"/>
+      <c r="G39" s="698"/>
+      <c r="H39" s="698"/>
+      <c r="I39" s="698"/>
+      <c r="J39" s="698"/>
+      <c r="K39" s="698"/>
+      <c r="L39" s="698"/>
+      <c r="M39" s="698"/>
+      <c r="N39" s="698"/>
+      <c r="O39" s="698"/>
+      <c r="P39" s="391"/>
+      <c r="Q39" s="391"/>
     </row>
-    <row r="40" customHeight="1" ht="42">
-      <c r="A40" s="20" t="s">
+    <row r="40" customHeight="1" ht="27">
+      <c r="A40" s="630" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="644" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="631" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="139"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="D40" s="631"/>
+      <c r="E40" s="631"/>
+      <c r="F40" s="631"/>
+      <c r="G40" s="645"/>
+      <c r="H40" s="645"/>
+      <c r="I40" s="645"/>
+      <c r="J40" s="645"/>
+      <c r="K40" s="645"/>
+      <c r="L40" s="645"/>
+      <c r="M40" s="645"/>
+      <c r="N40" s="645"/>
+      <c r="O40" s="646"/>
+      <c r="P40" s="391"/>
+      <c r="Q40" s="391"/>
     </row>
     <row r="41" customHeight="1" ht="21">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="537" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="B41" s="538"/>
+      <c r="C41" s="538"/>
+      <c r="D41" s="538"/>
+      <c r="E41" s="538"/>
+      <c r="F41" s="538"/>
+      <c r="G41" s="538"/>
+      <c r="H41" s="538"/>
+      <c r="I41" s="538"/>
+      <c r="J41" s="538"/>
+      <c r="K41" s="538"/>
+      <c r="L41" s="538"/>
+      <c r="M41" s="538"/>
+      <c r="N41" s="538"/>
+      <c r="O41" s="539"/>
+      <c r="P41" s="391"/>
+      <c r="Q41" s="391"/>
     </row>
-    <row r="42" customHeight="1" ht="39">
-      <c r="A42" s="19" t="s">
+    <row r="42" customHeight="1" ht="84">
+      <c r="A42" s="439" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="462" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="479" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="139"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="D42" s="479"/>
+      <c r="E42" s="479"/>
+      <c r="F42" s="479"/>
+      <c r="G42" s="364"/>
+      <c r="H42" s="364"/>
+      <c r="I42" s="364"/>
+      <c r="J42" s="364"/>
+      <c r="K42" s="364"/>
+      <c r="L42" s="364"/>
+      <c r="M42" s="364"/>
+      <c r="N42" s="364"/>
+      <c r="O42" s="364"/>
+      <c r="P42" s="391"/>
+      <c r="Q42" s="391"/>
     </row>
-    <row r="43" customHeight="1" ht="33">
-      <c r="A43" s="19" t="s">
+    <row r="43" customHeight="1" ht="84">
+      <c r="A43" s="439" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="462" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="479" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="139"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="D43" s="479"/>
+      <c r="E43" s="479"/>
+      <c r="F43" s="479"/>
+      <c r="G43" s="364"/>
+      <c r="H43" s="364"/>
+      <c r="I43" s="364"/>
+      <c r="J43" s="364"/>
+      <c r="K43" s="364"/>
+      <c r="L43" s="364"/>
+      <c r="M43" s="364"/>
+      <c r="N43" s="364"/>
+      <c r="O43" s="364"/>
+      <c r="P43" s="391"/>
+      <c r="Q43" s="391"/>
     </row>
-    <row r="44" customHeight="1" ht="33">
-      <c r="A44" s="19" t="s">
+    <row r="44" customHeight="1" ht="27">
+      <c r="A44" s="439" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="462" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="479" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="139"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="D44" s="479"/>
+      <c r="E44" s="479"/>
+      <c r="F44" s="479"/>
+      <c r="G44" s="364"/>
+      <c r="H44" s="364"/>
+      <c r="I44" s="364"/>
+      <c r="J44" s="364"/>
+      <c r="K44" s="364"/>
+      <c r="L44" s="364"/>
+      <c r="M44" s="364"/>
+      <c r="N44" s="364"/>
+      <c r="O44" s="364"/>
+      <c r="P44" s="391"/>
+      <c r="Q44" s="391"/>
     </row>
-    <row r="45" customHeight="1" ht="21">
-      <c r="A45" s="19" t="s">
+    <row r="45" customHeight="1" ht="27">
+      <c r="A45" s="439" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="462" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="479" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="139"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="D45" s="479"/>
+      <c r="E45" s="479"/>
+      <c r="F45" s="479"/>
+      <c r="G45" s="364"/>
+      <c r="H45" s="364"/>
+      <c r="I45" s="364"/>
+      <c r="J45" s="364"/>
+      <c r="K45" s="364"/>
+      <c r="L45" s="364"/>
+      <c r="M45" s="364"/>
+      <c r="N45" s="364"/>
+      <c r="O45" s="364"/>
+      <c r="P45" s="391"/>
+      <c r="Q45" s="391"/>
     </row>
-    <row r="46" customHeight="1" ht="21">
-      <c r="A46" s="19" t="s">
+    <row r="46" customHeight="1" ht="27">
+      <c r="A46" s="439" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="462" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="479" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="139"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="D46" s="479"/>
+      <c r="E46" s="479"/>
+      <c r="F46" s="479"/>
+      <c r="G46" s="364"/>
+      <c r="H46" s="364"/>
+      <c r="I46" s="364"/>
+      <c r="J46" s="364"/>
+      <c r="K46" s="364"/>
+      <c r="L46" s="364"/>
+      <c r="M46" s="364"/>
+      <c r="N46" s="364"/>
+      <c r="O46" s="364"/>
+      <c r="P46" s="391"/>
+      <c r="Q46" s="391"/>
     </row>
-    <row r="47" customHeight="1" ht="21">
-      <c r="A47" s="19" t="s">
+    <row r="47" customHeight="1" ht="27">
+      <c r="A47" s="439" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="462" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="139"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+      <c r="C47" s="479"/>
+      <c r="D47" s="479"/>
+      <c r="E47" s="479"/>
+      <c r="F47" s="479"/>
+      <c r="G47" s="364"/>
+      <c r="H47" s="364"/>
+      <c r="I47" s="364"/>
+      <c r="J47" s="364"/>
+      <c r="K47" s="364"/>
+      <c r="L47" s="364"/>
+      <c r="M47" s="364"/>
+      <c r="N47" s="364"/>
+      <c r="O47" s="364"/>
+      <c r="P47" s="391"/>
+      <c r="Q47" s="391"/>
     </row>
-    <row r="48" customHeight="1" ht="21">
-      <c r="A48" s="19" t="s">
+    <row r="48" customHeight="1" ht="55">
+      <c r="A48" s="439" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="462" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="139"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
+      <c r="C48" s="364"/>
+      <c r="D48" s="364"/>
+      <c r="E48" s="364"/>
+      <c r="F48" s="364"/>
+      <c r="G48" s="364"/>
+      <c r="H48" s="364"/>
+      <c r="I48" s="364"/>
+      <c r="J48" s="364"/>
+      <c r="K48" s="364"/>
+      <c r="L48" s="364"/>
+      <c r="M48" s="364"/>
+      <c r="N48" s="364"/>
+      <c r="O48" s="364"/>
+      <c r="P48" s="391"/>
+      <c r="Q48" s="391"/>
     </row>
-    <row r="49" customHeight="1" ht="21">
-      <c r="A49" s="19" t="s">
+    <row r="49" customHeight="1" ht="55">
+      <c r="A49" s="439" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="462" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="140"/>
-      <c r="N49" s="140"/>
-      <c r="O49" s="140"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-    </row>
-    <row r="50" customHeight="1" ht="21">
-      <c r="A50" s="6"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-    </row>
-    <row r="51" customHeight="1" ht="18">
-      <c r="A51" s="6"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-    </row>
-    <row r="52" customHeight="1" ht="18">
-      <c r="A52" s="6"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-    </row>
-    <row r="53" customHeight="1" ht="30">
-      <c r="A53" s="6"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-    </row>
-    <row r="54" customHeight="1" ht="30">
-      <c r="A54" s="6"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-    </row>
-    <row r="55" customHeight="1" ht="21">
-      <c r="A55" s="6"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-    </row>
-    <row r="56" customHeight="1" ht="18">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-    </row>
-    <row r="57" customHeight="1" ht="18">
-      <c r="A57" s="6"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-    </row>
-    <row r="58" customHeight="1" ht="18">
-      <c r="A58" s="6"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-    </row>
-    <row r="59" customHeight="1" ht="51">
-      <c r="A59" s="6"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-    </row>
-    <row r="60" customHeight="1" ht="48">
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="C49" s="364"/>
+      <c r="D49" s="364"/>
+      <c r="E49" s="364"/>
+      <c r="F49" s="364"/>
+      <c r="G49" s="364"/>
+      <c r="H49" s="364"/>
+      <c r="I49" s="364"/>
+      <c r="J49" s="364"/>
+      <c r="K49" s="364"/>
+      <c r="L49" s="364"/>
+      <c r="M49" s="364"/>
+      <c r="N49" s="364"/>
+      <c r="O49" s="364"/>
+      <c r="P49" s="391"/>
+      <c r="Q49" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -3621,7 +6856,7 @@
     <mergeCell ref="C49:O49"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1" fitToHeight="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>